--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MobileAppProject2019\Fitness-App2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F016C7D-89A9-4C59-9067-2A3109C1D16B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1AA07D-795D-4281-B845-97CC063BD8DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>Project Name</t>
   </si>
@@ -113,293 +113,264 @@
 Ref</t>
   </si>
   <si>
+    <t>Requirement  ID</t>
+  </si>
+  <si>
+    <t>TC.001</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TC.002</t>
+  </si>
+  <si>
+    <t>TC.003</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>TC.004</t>
+  </si>
+  <si>
+    <t>TC.005</t>
+  </si>
+  <si>
+    <t>TC.006</t>
+  </si>
+  <si>
+    <t>TC.007</t>
+  </si>
+  <si>
+    <t>TC.008</t>
+  </si>
+  <si>
+    <t>TC.009</t>
+  </si>
+  <si>
+    <t>TC.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Android
+iOS
+Universal Windows Platform (UWP)</t>
+  </si>
+  <si>
+    <t>1. Run App</t>
+  </si>
+  <si>
+    <t>The list is displayed from previous saves</t>
+  </si>
+  <si>
+    <t>List shown comprised of the detail and the date entry was saved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitness information list display </t>
+  </si>
+  <si>
+    <t xml:space="preserve">functionality </t>
+  </si>
+  <si>
+    <t>User is directed to Fitness Information page, where editing/deleting entry is possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitness Information Page is displayed </t>
+  </si>
+  <si>
+    <t>App colour</t>
+  </si>
+  <si>
+    <t>blue and white colour scheme</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>yellowgreen and blue is displayed colour scheme</t>
+  </si>
+  <si>
+    <t>yellowgreen and blue colour scheme is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Run App
+</t>
+  </si>
+  <si>
+    <t>Include background colour in contentPage tag</t>
+  </si>
+  <si>
+    <t>1. Launch App 2. Click Add</t>
+  </si>
+  <si>
+    <t>Fitness Information Page</t>
+  </si>
+  <si>
     <r>
-      <t>Microsoft</t>
+      <t xml:space="preserve">1.  Run App, (homepage is the fitness info </t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>list</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>Internet Explorer 9 Windows 7
-Microsoft Internet Explorer 10 Windows 7
-Micresoft Internet Explorer 11 Windows 7
-Microsoft Internet Explorer 8  Windows XP
-Microsoft Internet Explorer 7 Windows XP 
-Firefox latest version
-Apple Safari  Windows XP 
-Apple Safari 
-Google Chrome Windows XP
-Opera Windows XP</t>
+      <t xml:space="preserve">)
+2.  Click Add
+3. Enter exercise details
+4. Click save.
+</t>
     </r>
   </si>
   <si>
-    <t>Requirement  ID</t>
-  </si>
-  <si>
-    <t>TC.001</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>1. Launch Home page
-2. Retrieve Login panel</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>TC.002</t>
-  </si>
-  <si>
-    <t>Login panel display</t>
-  </si>
-  <si>
-    <t>TC.003</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Company logo is displayed on the left hand side of login panel</t>
-  </si>
-  <si>
-    <t>Company name is displayed at top centre of login panel</t>
-  </si>
-  <si>
-    <t>Company name is displayed at top centre of login panel but is mispelt</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Defect No 12345
-Priority-1
-Severity-Major</t>
-  </si>
-  <si>
-    <t>To be assigned</t>
-  </si>
-  <si>
-    <t>Login credetinals</t>
-  </si>
-  <si>
-    <t>Home page is displayed</t>
-  </si>
-  <si>
-    <t>Successful login</t>
-  </si>
-  <si>
-    <t>Test Case Name</t>
-  </si>
-  <si>
-    <t>TC.004</t>
-  </si>
-  <si>
-    <t>3.00 and 4.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Create valid account
-2.  Go to Login page
-3.  Go to User Id field and without entring data in that field press "Enter" key.
+    <t>User is directed to Fitness Information List, with entry displayed</t>
+  </si>
+  <si>
+    <r>
+      <t>Entry displayed on Fitness Information</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Page</t>
+    </r>
+  </si>
+  <si>
+    <t>Entry displayed on Fitness Information List Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Run App, (homepage is the fitness info list)
+2.  Click on list item 
+3. User is directed to Fitness Info Page
+4. Click delete
 </t>
   </si>
   <si>
-    <t>Error message validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message displayed
-"Please enter User ID </t>
-  </si>
-  <si>
-    <t>Error message displayed
-Incorrect 'Password' entered. Please enter correct password</t>
-  </si>
-  <si>
-    <t>Error message displayed "Password field is mandatory. Please enter proper password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Go to Home page
-2.  Go to login screen Go to login screen enter "User Id" and enter wrong
-password try to click on "OK" button.
-on.
+    <t>selected list item is removed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User is directed to Fitness Information </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">List, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">no longer contains selected list item </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User is directed to Fitness Information List, no longer contains selected list item </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functionality </t>
+  </si>
+  <si>
+    <t>1.  Run App, (homepage is the fitness info list)
+2.  Click on list item 
+3. User is directed to Fitness Info Page
+4. Edit text in entry box. 5. Click save</t>
+  </si>
+  <si>
+    <t>Editing validation</t>
+  </si>
+  <si>
+    <t>List item successfully edited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List item successfully edited </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation </t>
+  </si>
+  <si>
+    <t>1. Run App
+2. Click Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrow shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A left pointing arrow is displayed, indicating user to go back to previous page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title display </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run App </t>
+  </si>
+  <si>
+    <t>Toolbar</t>
+  </si>
+  <si>
+    <t>Name of page in toolbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run App
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.  Go to Home page
-2.  Go to login screen enter "User Id" and winthout entering password try to click on "OK" button.
-</t>
-  </si>
-  <si>
-    <t>TC.005</t>
-  </si>
-  <si>
-    <t>TC.006</t>
-  </si>
-  <si>
-    <t>TC.007</t>
-  </si>
-  <si>
-    <t>TC.008</t>
-  </si>
-  <si>
-    <t>Password
-reset</t>
-  </si>
-  <si>
-    <t>1. Go to Home page
-2. Go to login screen 
-3. Reset password to "gmit2014"
-4. Click OK
-3. Click OK button</t>
-  </si>
-  <si>
-    <t>Reset credentials functionality</t>
-  </si>
-  <si>
-    <t>Message dispayed
-"New password reset successfully"</t>
-  </si>
-  <si>
-    <t>Successful login to application</t>
-  </si>
-  <si>
-    <t>TC.009</t>
-  </si>
-  <si>
-    <t>1. Create valid account
-pwd_Naomi12
-user name_naomi.hurley@gmit.ie
-2.  Go to Login page
-3.  Enter valid user name and e-mail</t>
-  </si>
-  <si>
-    <t>1. Go to Home page
-2. Go to login screen 
-3. Enter user name and password  "Naomi12"
-4. Click OK button</t>
-  </si>
-  <si>
-    <t>Unsuccessful login to application
-Message displayed "Wrong password used, please recheck"</t>
-  </si>
-  <si>
-    <t>TC.010</t>
-  </si>
-  <si>
-    <t>Email confirmation</t>
-  </si>
-  <si>
-    <t>Password email</t>
-  </si>
-  <si>
-    <t>Details of new login credentals emailed to client</t>
-  </si>
-  <si>
-    <t>TC.011</t>
-  </si>
-  <si>
-    <t>TC.012</t>
-  </si>
-  <si>
-    <t>1. Go to Home page
-2. Go to login screen 
-3. Select [reset] button
-3. Enter user name and change password to "gmit2014"
-4. Click [OK] button</t>
-  </si>
-  <si>
-    <t>1. Repeat steps in TC.009</t>
-  </si>
-  <si>
-    <t>Details of amended login credentals emailed to client</t>
-  </si>
-  <si>
-    <t>TC.013</t>
-  </si>
-  <si>
-    <t>1. Setup email acounts for Gmail, Outlook
-2. Repeat steps in TC.010
-3. Open Gmail and outlook</t>
-  </si>
-  <si>
-    <t>Email notifications received in Gmail and Outlook</t>
-  </si>
-  <si>
-    <t>TC.014</t>
-  </si>
-  <si>
-    <t>TC.015</t>
-  </si>
-  <si>
-    <t>Social login
-Facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Set up a Facebook account
-2. Go to home page
-3. Select the "Sign in with Facebook" icon
-3.  form of single sign-on using existing login information from a social networking service such as Facebook, Twitter or Google+ to sign into a third party website in lieu of creating a new login account </t>
-  </si>
-  <si>
-    <t>Single sign in using social networks credentials</t>
-  </si>
-  <si>
-    <t>Successful login using Facebook credentials</t>
-  </si>
-  <si>
-    <t>TC.016</t>
-  </si>
-  <si>
-    <t>TC.017</t>
-  </si>
-  <si>
-    <t>Social login
-Twiter</t>
-  </si>
-  <si>
-    <t>Social login
-Google+</t>
-  </si>
-  <si>
-    <t>Successful login using 
-Google+ credentials</t>
-  </si>
-  <si>
-    <t>Successful login using 
-Twiter credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Repeat steps in T.003
-2. Access Gmail and Outlook using
-IOS  devices e.g. iPhone </t>
-  </si>
-  <si>
-    <t>Login credentials</t>
-  </si>
-  <si>
-    <t>Error message"Wrong password. Please recheck and re-enter"</t>
-  </si>
-  <si>
-    <t>1. Go to Home page
-2. Go to login screen and enter "User ID" and password "abc12"
-3. Click OK button</t>
+    <t xml:space="preserve">Text in toolbar </t>
+  </si>
+  <si>
+    <t>Text in toolbar</t>
+  </si>
+  <si>
+    <t>Title attribute must be included in contentPage tag eg "Fitness Information" and "Fitness Information List"</t>
   </si>
 </sst>
 </file>
@@ -488,11 +459,12 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1860,23 +1832,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="100.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1897,7 +1869,7 @@
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
     </row>
-    <row r="2" spans="1:12" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>24</v>
       </c>
@@ -1905,7 +1877,7 @@
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
       <c r="E2" s="64" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F2" s="64"/>
       <c r="G2" s="29"/>
@@ -1917,7 +1889,7 @@
     </row>
     <row r="3" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>12</v>
@@ -1926,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>13</v>
@@ -1938,10 +1910,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>16</v>
@@ -1961,33 +1933,33 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:12" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>2</v>
       </c>
@@ -1995,101 +1967,103 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>48</v>
+      <c r="K5" s="36"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>3</v>
       </c>
       <c r="B6" s="35">
         <v>1</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" s="34" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:12" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="35">
         <v>1</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" s="38" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="L7" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>5</v>
       </c>
@@ -2097,389 +2071,303 @@
         <v>1</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="35">
         <v>1</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="38" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="35">
         <v>1</v>
       </c>
       <c r="C10" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>94</v>
-      </c>
       <c r="E10" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="35">
         <v>1</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:12" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" s="35">
         <v>1</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="38" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" s="35">
         <v>1</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="1:12" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
-        <v>6.1</v>
-      </c>
-      <c r="B14" s="35">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="L13" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
-        <v>6.2</v>
-      </c>
-      <c r="B15" s="35">
-        <v>1</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>77</v>
-      </c>
+    <row r="15" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
-        <v>6.2</v>
-      </c>
-      <c r="B16" s="35">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>80</v>
-      </c>
+    <row r="16" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="34"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="1:12" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
-        <v>6.2</v>
-      </c>
-      <c r="B17" s="35">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>80</v>
-      </c>
+    <row r="17" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="34"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
     </row>
-    <row r="18" spans="1:12" s="38" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
-        <v>7</v>
-      </c>
-      <c r="B18" s="35">
-        <v>1</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>86</v>
-      </c>
+    <row r="18" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="1:12" s="38" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
-        <v>7</v>
-      </c>
-      <c r="B19" s="35">
-        <v>1</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>92</v>
-      </c>
+    <row r="19" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="34"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" spans="1:12" s="38" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
-        <v>7</v>
-      </c>
-      <c r="B20" s="35">
-        <v>1</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>91</v>
-      </c>
+    <row r="20" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -2493,7 +2381,7 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -2507,7 +2395,7 @@
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -2521,7 +2409,7 @@
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -2535,7 +2423,7 @@
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -2549,7 +2437,7 @@
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -2563,7 +2451,7 @@
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -2577,7 +2465,7 @@
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
     </row>
-    <row r="28" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -2591,7 +2479,7 @@
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
     </row>
-    <row r="29" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -2605,7 +2493,7 @@
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
     </row>
-    <row r="30" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -2619,7 +2507,7 @@
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
     </row>
-    <row r="31" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -2654,5 +2542,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>